--- a/biology/Médecine/Stéribox/Stéribox.xlsx
+++ b/biology/Médecine/Stéribox/Stéribox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9ribox</t>
+          <t>Stéribox</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Stéribox  est une trousse de réduction des risques (RDR) destinée aux usagers de drogues par voie injectable (UDVI).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9ribox</t>
+          <t>Stéribox</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement du Stéribox entre dans une logique de réduction des risques infectieux liés à l'usage de drogues par voie injectable. L'idée étant qu'il faut donner aux usagers injecteurs les moyens de préserver leur santé en adoptant des pratiques les moins délétères possibles. 
 Le partage des seringues étant une pratique à risque d'infection (notamment l'infection par le VIH), il fallait lutter contre cette pratique de partage. Or la difficulté de se procurer des seringues était considérée comme une cause importante de partage de celles-ci.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9ribox</t>
+          <t>Stéribox</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La première version ("Stéribox") contenait deux seringues à insuline (de volume 1 mL), deux ampoules d’eau pour préparation injectable, deux tampons imbibés d'alcool, un préservatif et une notice d’utilisation.
 Quelques années plus tard, l'association Apothicom mène une étude qui fait apparaitre que le risque infectieux (notamment par le virus de l'hépatite C) est présent lors du partage du matériel annexe à l'injection (cuillère dans laquelle est réalisée la préparation, coton servant à la filtrer). En 1999, Apothicom proposera alors une seconde version de la trousse, le Stéribox2 (testé dès 1997 à Ivry). Par rapport à la première version, cette seconde mouture intègre deux exemplaires d'un dispositif appelé Stéricup. 
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>St%C3%A9ribox</t>
+          <t>Stéribox</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Disponibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Stéribox2 est disponible en pharmacie, au prix maximum conseillé de 1 euro. Il existe un équivalent gratuit, le « Kit+ », disponible via certaines associations de RDR et dans les Centres d'accueil et d'accompagnement à la réduction de risques pour usagers de drogues (CAARUD).
 </t>
